--- a/va_facility_data_2025-02-20/Binghamton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Binghamton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Binghamton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Binghamton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0d1bfea319724fadab32d979ffd4b0da"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R642a0f35fa374786871320834e20dfdf"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6f6b3e6361c94b15b5a8236b51caebee"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R562ddfe56f8049e0be46367963ac1b60"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra5adf74edeb347488b4b66575f0b0d82"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7c2158dc615a4a7b8b53bf3ee5fdeac0"/>
   </x:sheets>
 </x:workbook>
 </file>
